--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:02+00:00</t>
+    <t>2023-03-06T10:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:50+00:00</t>
+    <t>2023-03-06T10:21:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:21:46+00:00</t>
+    <t>2023-03-07T14:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:51:30+00:00</t>
+    <t>2023-03-08T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:25:49+00:00</t>
+    <t>2023-03-08T07:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:58:39+00:00</t>
+    <t>2023-03-09T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:15:18+00:00</t>
+    <t>2023-03-09T12:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T12:07:06+00:00</t>
+    <t>2023-03-09T16:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T16:26:30+00:00</t>
+    <t>2023-03-10T10:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:03:34+00:00</t>
+    <t>2023-03-10T14:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T14:03:40+00:00</t>
+    <t>2023-03-10T16:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:06:49+00:00</t>
+    <t>2023-03-13T07:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T07:40:36+00:00</t>
+    <t>2023-03-13T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T11:14:34+00:00</t>
+    <t>2023-03-13T13:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T13:58:57+00:00</t>
+    <t>2023-03-13T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:14:07+00:00</t>
+    <t>2023-03-13T14:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T14:59:56+00:00</t>
+    <t>2023-03-13T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T15:28:19+00:00</t>
+    <t>2023-03-14T07:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T07:46:37+00:00</t>
+    <t>2023-03-15T15:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:36:42+00:00</t>
+    <t>2023-03-15T15:41:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:41:30+00:00</t>
+    <t>2023-03-21T15:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T15:32:49+00:00</t>
+    <t>2023-03-27T14:30:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:30:28+00:00</t>
+    <t>2023-03-27T14:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:49:55+00:00</t>
+    <t>2023-03-28T07:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T07:26:22+00:00</t>
+    <t>2023-03-28T08:50:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T08:50:23+00:00</t>
+    <t>2023-03-28T13:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T13:00:55+00:00</t>
+    <t>2023-03-29T15:26:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T15:26:54+00:00</t>
+    <t>2023-03-30T07:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T07:20:01+00:00</t>
+    <t>2023-03-30T08:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T08:12:51+00:00</t>
+    <t>2023-03-31T06:57:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror30/StructureDefinition/ror-calculated-distance</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-calculated-distance</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T06:57:00+00:00</t>
+    <t>2023-04-05T09:21:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:21:20+00:00</t>
+    <t>2023-04-07T12:46:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour transporter la distance calculée</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T12:46:16+00:00</t>
+    <t>2023-04-07T13:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:22:07+00:00</t>
+    <t>2023-04-07T13:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T13:37:24+00:00</t>
+    <t>2023-04-07T14:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:29:23+00:00</t>
+    <t>2023-04-07T14:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T14:34:36+00:00</t>
+    <t>2023-04-07T15:03:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T15:03:36+00:00</t>
+    <t>2023-04-11T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:38:10+00:00</t>
+    <t>2023-04-11T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:56:12+00:00</t>
+    <t>2023-04-11T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:15:18+00:00</t>
+    <t>2023-04-11T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:01+00:00</t>
+    <t>2023-04-11T09:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-calculated-distance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:36+00:00</t>
+    <t>2023-04-11T09:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
